--- a/xsec-0.xlsx
+++ b/xsec-0.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -524,7 +524,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -587,7 +587,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -629,7 +629,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -671,7 +671,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -734,7 +734,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -797,7 +797,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -818,7 +818,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -881,7 +881,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -902,7 +902,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -965,7 +965,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C39" t="n">

--- a/xsec-0.xlsx
+++ b/xsec-0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,18 +461,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X82</t>
+          <t>X79</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-59</v>
+        <v>-35</v>
       </c>
       <c r="D2" t="n">
-        <v>144.592</v>
+        <v>144.388</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -486,14 +486,14 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-54</v>
+        <v>-29</v>
       </c>
       <c r="D3" t="n">
-        <v>144.31</v>
+        <v>144.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -507,14 +507,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-47</v>
+        <v>-23</v>
       </c>
       <c r="D4" t="n">
-        <v>144.061</v>
+        <v>143.974</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-40</v>
+        <v>-16</v>
       </c>
       <c r="D5" t="n">
-        <v>143.613</v>
+        <v>143.479</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -549,14 +549,14 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-31</v>
+        <v>-10</v>
       </c>
       <c r="D6" t="n">
-        <v>143.134</v>
+        <v>143.263</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-24</v>
+        <v>-5</v>
       </c>
       <c r="D7" t="n">
-        <v>142.625</v>
+        <v>143.098</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -591,14 +591,14 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>142.316</v>
+        <v>142.859</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>141.666</v>
+        <v>142.427</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>141.29</v>
+        <v>141.924</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>140.871</v>
+        <v>141.699</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>140.213</v>
+        <v>141.502</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D13" t="n">
-        <v>140.289</v>
+        <v>141.212</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -717,14 +717,14 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
-        <v>140.143</v>
+        <v>140.695</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -738,14 +738,14 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D15" t="n">
-        <v>140.109</v>
+        <v>140.48</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -755,18 +755,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t>X78</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>-46</v>
       </c>
       <c r="D16" t="n">
-        <v>140.007</v>
+        <v>144.115</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -780,14 +780,14 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>41</v>
+        <v>-43</v>
       </c>
       <c r="D17" t="n">
-        <v>139.668</v>
+        <v>143.97</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -801,14 +801,14 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>46</v>
+        <v>-37</v>
       </c>
       <c r="D18" t="n">
-        <v>139.423</v>
+        <v>143.611</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -822,14 +822,14 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>55</v>
+        <v>-37</v>
       </c>
       <c r="D19" t="n">
-        <v>138.664</v>
+        <v>143.612</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -843,14 +843,14 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>-28</v>
       </c>
       <c r="D20" t="n">
-        <v>138.191</v>
+        <v>143.253</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -860,18 +860,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>X81</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-54</v>
+        <v>-20</v>
       </c>
       <c r="D21" t="n">
-        <v>142.849</v>
+        <v>143.066</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -885,14 +885,14 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-46</v>
+        <v>-12</v>
       </c>
       <c r="D22" t="n">
-        <v>142.836</v>
+        <v>142.644</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -906,14 +906,14 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-40</v>
+        <v>-3</v>
       </c>
       <c r="D23" t="n">
-        <v>142.743</v>
+        <v>142.251</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -927,14 +927,14 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>142.581</v>
+        <v>142.128</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>cl</t>
         </is>
       </c>
     </row>
@@ -948,14 +948,14 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-31</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>142.366</v>
+        <v>142.045</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -969,14 +969,14 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-25</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>142.274</v>
+        <v>141.731</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -990,14 +990,14 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="D27" t="n">
-        <v>141.997</v>
+        <v>141.467</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -1011,14 +1011,14 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-11</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>141.534</v>
+        <v>141.076</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1032,14 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-6</v>
+        <v>36</v>
       </c>
       <c r="D29" t="n">
-        <v>141.371</v>
+        <v>140.733</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -1053,14 +1053,14 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D30" t="n">
-        <v>141.141</v>
+        <v>140.396</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -1074,14 +1074,14 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D31" t="n">
-        <v>141.19</v>
+        <v>140.082</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
@@ -1095,161 +1095,14 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D32" t="n">
-        <v>141.057</v>
+        <v>139.895</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ÊÇ¹</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>22</v>
-      </c>
-      <c r="D33" t="n">
-        <v>141.015</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ÊÇ¹</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>28</v>
-      </c>
-      <c r="D34" t="n">
-        <v>140.775</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ÊÇ¹</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>34</v>
-      </c>
-      <c r="D35" t="n">
-        <v>140.338</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ÊÇ¹</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>42</v>
-      </c>
-      <c r="D36" t="n">
-        <v>139.823</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ÊÇ¹</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>48</v>
-      </c>
-      <c r="D37" t="n">
-        <v>139.589</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ÊÇ¹</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>55</v>
-      </c>
-      <c r="D38" t="n">
-        <v>139.198</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ÊÇ¹</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  </t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>60</v>
-      </c>
-      <c r="D39" t="n">
-        <v>138.749</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ÊÇ¹</t>
+          <t>สวน</t>
         </is>
       </c>
     </row>
